--- a/iteration2/biased_keywords.xlsx
+++ b/iteration2/biased_keywords.xlsx
@@ -480,9 +480,6 @@
     <t>perfect match</t>
   </si>
   <si>
-    <t>encourage you to apply.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> equal opportunity</t>
   </si>
   <si>
@@ -574,6 +571,9 @@
   </si>
   <si>
     <t>advantages</t>
+  </si>
+  <si>
+    <t>encourage you to apply</t>
   </si>
 </sst>
 </file>
@@ -925,8 +925,8 @@
   </sheetPr>
   <dimension ref="A1:C180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>145</v>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="143" spans="1:2" ht="15.75" customHeight="1">
       <c r="A143" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>118</v>
@@ -2081,7 +2081,7 @@
     </row>
     <row r="144" spans="1:2" ht="15.75" customHeight="1">
       <c r="A144" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>118</v>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="148" spans="1:2" ht="15.75" customHeight="1">
       <c r="A148" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>118</v>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="151" spans="1:2" ht="15.75" customHeight="1">
       <c r="A151" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B151" s="5" t="s">
         <v>150</v>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="153" spans="1:2" ht="15.75" customHeight="1">
       <c r="A153" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B153" s="5" t="s">
         <v>150</v>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="155" spans="1:2" ht="15.75" customHeight="1">
       <c r="A155" s="6" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>151</v>
@@ -2177,7 +2177,7 @@
     </row>
     <row r="156" spans="1:2" ht="15.75" customHeight="1">
       <c r="A156" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B156" s="5" t="s">
         <v>151</v>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="157" spans="1:2" ht="15.75" customHeight="1">
       <c r="A157" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>151</v>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="158" spans="1:2" ht="15.75" customHeight="1">
       <c r="A158" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B158" s="5" t="s">
         <v>151</v>
@@ -2201,7 +2201,7 @@
     </row>
     <row r="159" spans="1:2" ht="15.75" customHeight="1">
       <c r="A159" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B159" s="5" t="s">
         <v>151</v>
@@ -2209,7 +2209,7 @@
     </row>
     <row r="160" spans="1:2" ht="15.75" customHeight="1">
       <c r="A160" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B160" s="5" t="s">
         <v>151</v>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="161" spans="1:3" ht="15.75" customHeight="1">
       <c r="A161" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B161" s="5" t="s">
         <v>151</v>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="162" spans="1:3" ht="15.75" customHeight="1">
       <c r="A162" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B162" s="5" t="s">
         <v>151</v>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="163" spans="1:3" ht="15.75" customHeight="1">
       <c r="A163" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B163" s="5" t="s">
         <v>151</v>
@@ -2242,7 +2242,7 @@
     </row>
     <row r="164" spans="1:3" ht="15.75" customHeight="1">
       <c r="A164" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B164" s="5" t="s">
         <v>151</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="165" spans="1:3" ht="15.75" customHeight="1">
       <c r="A165" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>151</v>
@@ -2258,7 +2258,7 @@
     </row>
     <row r="166" spans="1:3" ht="15.75" customHeight="1">
       <c r="A166" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B166" s="5" t="s">
         <v>151</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="167" spans="1:3" ht="15.75" customHeight="1">
       <c r="A167" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B167" s="5" t="s">
         <v>151</v>
@@ -2274,7 +2274,7 @@
     </row>
     <row r="168" spans="1:3" ht="15.75" customHeight="1">
       <c r="A168" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B168" s="5" t="s">
         <v>151</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="169" spans="1:3" ht="15.75" customHeight="1">
       <c r="A169" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B169" s="5" t="s">
         <v>151</v>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="170" spans="1:3" ht="15.75" customHeight="1">
       <c r="A170" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B170" s="5" t="s">
         <v>151</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="171" spans="1:3" ht="15.75" customHeight="1">
       <c r="A171" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B171" s="5" t="s">
         <v>151</v>
@@ -2306,7 +2306,7 @@
     </row>
     <row r="172" spans="1:3" ht="15.75" customHeight="1">
       <c r="A172" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B172" s="5" t="s">
         <v>151</v>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="173" spans="1:3" ht="15.75" customHeight="1">
       <c r="A173" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B173" s="5" t="s">
         <v>151</v>
@@ -2322,7 +2322,7 @@
     </row>
     <row r="174" spans="1:3" ht="15.75" customHeight="1">
       <c r="A174" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B174" s="5" t="s">
         <v>151</v>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="175" spans="1:3" ht="15.75" customHeight="1">
       <c r="A175" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B175" s="5" t="s">
         <v>151</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="176" spans="1:3" ht="15.75" customHeight="1">
       <c r="A176" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B176" s="5" t="s">
         <v>151</v>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="177" spans="1:2" ht="15.75" customHeight="1">
       <c r="A177" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B177" s="5" t="s">
         <v>151</v>
@@ -2354,7 +2354,7 @@
     </row>
     <row r="178" spans="1:2" ht="15.75" customHeight="1">
       <c r="A178" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B178" s="5" t="s">
         <v>151</v>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="179" spans="1:2" ht="15.75" customHeight="1">
       <c r="A179" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B179" s="5" t="s">
         <v>151</v>
@@ -2370,7 +2370,7 @@
     </row>
     <row r="180" spans="1:2" ht="15.75" customHeight="1">
       <c r="A180" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B180" s="5" t="s">
         <v>151</v>
